--- a/lowe/edd/data/ORAN$HWS.xlsx
+++ b/lowe/edd/data/ORAN$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1796,14 +1796,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH121"/>
+  <dimension ref="A1:JI121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1813,12 +1813,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1846,12 +1846,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2666,11 +2666,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3471,10 +3474,13 @@
         <v>1590000</v>
       </c>
       <c r="JH9" s="11">
-        <v>1580600</v>
+        <v>1577900</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>1582000</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4275,10 +4281,13 @@
         <v>1490400</v>
       </c>
       <c r="JH10" s="11">
-        <v>1485700</v>
+        <v>1483000</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>1502200</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5079,10 +5088,13 @@
         <v>99500</v>
       </c>
       <c r="JH11" s="11">
-        <v>94900</v>
+        <v>94800</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>79800</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5885,8 +5897,11 @@
       <c r="JH12" s="12">
         <v>0.06</v>
       </c>
+      <c r="JI12" s="12">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6687,10 +6702,13 @@
         <v>1585600</v>
       </c>
       <c r="JH13" s="11">
-        <v>1592800</v>
+        <v>1588900</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1597300</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7493,8 +7511,11 @@
       <c r="JH14" s="11">
         <v>1900</v>
       </c>
+      <c r="JI14" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8295,10 +8316,13 @@
         <v>1583700</v>
       </c>
       <c r="JH15" s="11">
-        <v>1590900</v>
+        <v>1587000</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>1595400</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9099,10 +9123,13 @@
         <v>1437600</v>
       </c>
       <c r="JH16" s="11">
-        <v>1438500</v>
+        <v>1440900</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>1441600</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9903,10 +9930,13 @@
         <v>252200</v>
       </c>
       <c r="JH17" s="11">
-        <v>252100</v>
+        <v>251800</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>253600</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10707,10 +10737,13 @@
         <v>101800</v>
       </c>
       <c r="JH18" s="11">
-        <v>102200</v>
+        <v>102800</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>103100</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11513,8 +11546,11 @@
       <c r="JH19" s="11">
         <v>300</v>
       </c>
+      <c r="JI19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12315,10 +12351,13 @@
         <v>101500</v>
       </c>
       <c r="JH20" s="11">
-        <v>101900</v>
+        <v>102500</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>102800</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13119,10 +13158,13 @@
         <v>22500</v>
       </c>
       <c r="JH21" s="11">
+        <v>22600</v>
+      </c>
+      <c r="JI21" s="11">
         <v>22500</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13923,10 +13965,13 @@
         <v>10100</v>
       </c>
       <c r="JH22" s="11">
-        <v>9700</v>
+        <v>9800</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14727,10 +14772,13 @@
         <v>68900</v>
       </c>
       <c r="JH23" s="11">
-        <v>69700</v>
+        <v>70100</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>70400</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15531,10 +15579,13 @@
         <v>150400</v>
       </c>
       <c r="JH24" s="11">
-        <v>149900</v>
+        <v>149000</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>150500</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16335,10 +16386,13 @@
         <v>110700</v>
       </c>
       <c r="JH25" s="11">
-        <v>110500</v>
+        <v>109700</v>
+      </c>
+      <c r="JI25" s="11">
+        <v>111400</v>
       </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17139,10 +17193,13 @@
         <v>20400</v>
       </c>
       <c r="JH26" s="11">
-        <v>20300</v>
+        <v>20200</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>20900</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17945,8 +18002,11 @@
       <c r="JH27" s="11">
         <v>7200</v>
       </c>
+      <c r="JI27" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18749,8 +18809,11 @@
       <c r="JH28" s="11">
         <v>32900</v>
       </c>
+      <c r="JI28" s="11">
+        <v>33400</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19553,8 +19616,11 @@
       <c r="JH29" s="11">
         <v>13500</v>
       </c>
+      <c r="JI29" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20357,8 +20423,11 @@
       <c r="JH30" s="11">
         <v>12400</v>
       </c>
+      <c r="JI30" s="11">
+        <v>12300</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -21161,8 +21230,11 @@
       <c r="JH31" s="11">
         <v>12700</v>
       </c>
+      <c r="JI31" s="11">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -21963,10 +22035,13 @@
         <v>39700</v>
       </c>
       <c r="JH32" s="11">
-        <v>39400</v>
+        <v>39300</v>
+      </c>
+      <c r="JI32" s="11">
+        <v>39100</v>
       </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -22767,10 +22842,13 @@
         <v>1331500</v>
       </c>
       <c r="JH33" s="11">
-        <v>1338800</v>
+        <v>1335200</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>1341800</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23571,10 +23649,13 @@
         <v>1185400</v>
       </c>
       <c r="JH34" s="11">
-        <v>1186400</v>
+        <v>1189100</v>
+      </c>
+      <c r="JI34" s="11">
+        <v>1188000</v>
       </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24375,10 +24456,13 @@
         <v>252000</v>
       </c>
       <c r="JH35" s="11">
-        <v>249400</v>
+        <v>250600</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>247600</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -25179,10 +25263,13 @@
         <v>78500</v>
       </c>
       <c r="JH36" s="11">
-        <v>77000</v>
+        <v>77300</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>76400</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -25983,10 +26070,13 @@
         <v>48800</v>
       </c>
       <c r="JH37" s="11">
-        <v>47800</v>
+        <v>48000</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>47200</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -26787,10 +26877,13 @@
         <v>24200</v>
       </c>
       <c r="JH38" s="11">
-        <v>23800</v>
+        <v>23900</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>23900</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -27593,8 +27686,11 @@
       <c r="JH39" s="11">
         <v>5400</v>
       </c>
+      <c r="JI39" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -28395,10 +28491,13 @@
         <v>141100</v>
       </c>
       <c r="JH40" s="11">
-        <v>139800</v>
+        <v>140600</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>138700</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -29199,10 +29298,13 @@
         <v>16500</v>
       </c>
       <c r="JH41" s="11">
-        <v>16300</v>
+        <v>16400</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>16200</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -30005,8 +30107,11 @@
       <c r="JH42" s="11">
         <v>11400</v>
       </c>
+      <c r="JI42" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -30807,10 +30912,13 @@
         <v>29500</v>
       </c>
       <c r="JH43" s="11">
-        <v>29100</v>
+        <v>29500</v>
+      </c>
+      <c r="JI43" s="11">
+        <v>28600</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -31611,10 +31719,13 @@
         <v>27300</v>
       </c>
       <c r="JH44" s="11">
-        <v>26900</v>
+        <v>27200</v>
+      </c>
+      <c r="JI44" s="11">
+        <v>26400</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32417,8 +32528,11 @@
       <c r="JH45" s="11">
         <v>10900</v>
       </c>
+      <c r="JI45" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -33221,8 +33335,11 @@
       <c r="JH46" s="11">
         <v>15500</v>
       </c>
+      <c r="JI46" s="11">
+        <v>15200</v>
+      </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -34025,8 +34142,11 @@
       <c r="JH47" s="11">
         <v>4500</v>
       </c>
+      <c r="JI47" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -34829,8 +34949,11 @@
       <c r="JH48" s="11">
         <v>24900</v>
       </c>
+      <c r="JI48" s="11">
+        <v>25300</v>
+      </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35631,10 +35754,13 @@
         <v>32400</v>
       </c>
       <c r="JH49" s="11">
-        <v>32600</v>
+        <v>32700</v>
+      </c>
+      <c r="JI49" s="11">
+        <v>32500</v>
       </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36437,8 +36563,11 @@
       <c r="JH50" s="11">
         <v>2900</v>
       </c>
+      <c r="JI50" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37239,10 +37368,13 @@
         <v>29400</v>
       </c>
       <c r="JH51" s="11">
-        <v>29700</v>
+        <v>29800</v>
+      </c>
+      <c r="JI51" s="11">
+        <v>29500</v>
       </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -38045,8 +38177,11 @@
       <c r="JH52" s="11">
         <v>8400</v>
       </c>
+      <c r="JI52" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -38849,8 +38984,11 @@
       <c r="JH53" s="11">
         <v>6200</v>
       </c>
+      <c r="JI53" s="11">
+        <v>6100</v>
+      </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>56</v>
       </c>
@@ -39651,10 +39789,13 @@
         <v>24400</v>
       </c>
       <c r="JH54" s="11">
-        <v>24400</v>
+        <v>24500</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>24500</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>57</v>
       </c>
@@ -40457,8 +40598,11 @@
       <c r="JH55" s="11">
         <v>10100</v>
       </c>
+      <c r="JI55" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>58</v>
       </c>
@@ -41259,10 +41403,13 @@
         <v>6000</v>
       </c>
       <c r="JH56" s="11">
+        <v>6000</v>
+      </c>
+      <c r="JI56" s="11">
         <v>5900</v>
       </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>60</v>
       </c>
@@ -42063,10 +42210,13 @@
         <v>114800</v>
       </c>
       <c r="JH57" s="11">
-        <v>113800</v>
+        <v>113700</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>113400</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -42867,10 +43017,13 @@
         <v>79700</v>
       </c>
       <c r="JH58" s="11">
-        <v>78900</v>
+        <v>78800</v>
+      </c>
+      <c r="JI58" s="11">
+        <v>77900</v>
       </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -43671,10 +43824,13 @@
         <v>43100</v>
       </c>
       <c r="JH59" s="11">
-        <v>43100</v>
+        <v>42900</v>
+      </c>
+      <c r="JI59" s="11">
+        <v>42600</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>63</v>
       </c>
@@ -44475,10 +44631,13 @@
         <v>16900</v>
       </c>
       <c r="JH60" s="11">
-        <v>17200</v>
+        <v>17100</v>
+      </c>
+      <c r="JI60" s="11">
+        <v>16900</v>
       </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>64</v>
       </c>
@@ -45279,10 +45438,13 @@
         <v>17300</v>
       </c>
       <c r="JH61" s="11">
-        <v>17100</v>
+        <v>16900</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>16900</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>67</v>
       </c>
@@ -46083,10 +46245,13 @@
         <v>23600</v>
       </c>
       <c r="JH62" s="11">
-        <v>23300</v>
+        <v>23200</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>23000</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>68</v>
       </c>
@@ -46887,10 +47052,13 @@
         <v>8300</v>
       </c>
       <c r="JH63" s="11">
-        <v>8400</v>
+        <v>8300</v>
+      </c>
+      <c r="JI63" s="11">
+        <v>8200</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>69</v>
       </c>
@@ -47693,8 +47861,11 @@
       <c r="JH64" s="11">
         <v>14900</v>
       </c>
+      <c r="JI64" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>71</v>
       </c>
@@ -48497,8 +48668,11 @@
       <c r="JH65" s="11">
         <v>34900</v>
       </c>
+      <c r="JI65" s="11">
+        <v>35500</v>
+      </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>72</v>
       </c>
@@ -49301,8 +49475,11 @@
       <c r="JH66" s="11">
         <v>30500</v>
       </c>
+      <c r="JI66" s="11">
+        <v>30700</v>
+      </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>74</v>
       </c>
@@ -50103,10 +50280,13 @@
         <v>319600</v>
       </c>
       <c r="JH67" s="11">
+        <v>320900</v>
+      </c>
+      <c r="JI67" s="11">
         <v>322300</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>75</v>
       </c>
@@ -50907,10 +51087,13 @@
         <v>140300</v>
       </c>
       <c r="JH68" s="11">
-        <v>141200</v>
+        <v>140200</v>
+      </c>
+      <c r="JI68" s="11">
+        <v>140500</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>76</v>
       </c>
@@ -51713,8 +51896,11 @@
       <c r="JH69" s="11">
         <v>17500</v>
       </c>
+      <c r="JI69" s="11">
+        <v>17400</v>
+      </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>77</v>
       </c>
@@ -52517,8 +52703,11 @@
       <c r="JH70" s="11">
         <v>15200</v>
       </c>
+      <c r="JI70" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>78</v>
       </c>
@@ -53321,8 +53510,11 @@
       <c r="JH71" s="11">
         <v>28100</v>
       </c>
+      <c r="JI71" s="11">
+        <v>28200</v>
+      </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>79</v>
       </c>
@@ -54125,8 +54317,11 @@
       <c r="JH72" s="11">
         <v>25400</v>
       </c>
+      <c r="JI72" s="11">
+        <v>25400</v>
+      </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>80</v>
       </c>
@@ -54927,10 +55122,13 @@
         <v>28600</v>
       </c>
       <c r="JH73" s="11">
-        <v>28800</v>
+        <v>28300</v>
+      </c>
+      <c r="JI73" s="11">
+        <v>28600</v>
       </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>82</v>
       </c>
@@ -55733,8 +55931,11 @@
       <c r="JH74" s="11">
         <v>35400</v>
       </c>
+      <c r="JI74" s="11">
+        <v>35400</v>
+      </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>83</v>
       </c>
@@ -56535,10 +56736,13 @@
         <v>143700</v>
       </c>
       <c r="JH75" s="11">
-        <v>145700</v>
+        <v>145300</v>
+      </c>
+      <c r="JI75" s="11">
+        <v>146400</v>
       </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>84</v>
       </c>
@@ -57339,10 +57543,13 @@
         <v>138800</v>
       </c>
       <c r="JH76" s="11">
-        <v>140800</v>
+        <v>140400</v>
+      </c>
+      <c r="JI76" s="11">
+        <v>141500</v>
       </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>85</v>
       </c>
@@ -58143,10 +58350,13 @@
         <v>65800</v>
       </c>
       <c r="JH77" s="11">
-        <v>68300</v>
+        <v>68700</v>
+      </c>
+      <c r="JI77" s="11">
+        <v>71300</v>
       </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>86</v>
       </c>
@@ -58947,10 +59157,13 @@
         <v>9900</v>
       </c>
       <c r="JH78" s="11">
-        <v>9900</v>
+        <v>10000</v>
+      </c>
+      <c r="JI78" s="11">
+        <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>87</v>
       </c>
@@ -59751,10 +59964,13 @@
         <v>34600</v>
       </c>
       <c r="JH79" s="11">
-        <v>34500</v>
+        <v>34400</v>
+      </c>
+      <c r="JI79" s="11">
+        <v>34100</v>
       </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>89</v>
       </c>
@@ -60557,8 +60773,11 @@
       <c r="JH80" s="11">
         <v>4900</v>
       </c>
+      <c r="JI80" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>90</v>
       </c>
@@ -61359,10 +61578,13 @@
         <v>224200</v>
       </c>
       <c r="JH81" s="11">
-        <v>225200</v>
+        <v>225800</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>227100</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>91</v>
       </c>
@@ -62163,10 +62385,13 @@
         <v>24800</v>
       </c>
       <c r="JH82" s="11">
-        <v>25700</v>
+        <v>26000</v>
+      </c>
+      <c r="JI82" s="11">
+        <v>27000</v>
       </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>92</v>
       </c>
@@ -62967,10 +63192,13 @@
         <v>6200</v>
       </c>
       <c r="JH83" s="11">
-        <v>6200</v>
+        <v>6600</v>
+      </c>
+      <c r="JI83" s="11">
+        <v>7500</v>
       </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>94</v>
       </c>
@@ -63771,10 +63999,13 @@
         <v>199400</v>
       </c>
       <c r="JH84" s="11">
-        <v>199500</v>
+        <v>199800</v>
+      </c>
+      <c r="JI84" s="11">
+        <v>200100</v>
       </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>95</v>
       </c>
@@ -64575,10 +64806,13 @@
         <v>92400</v>
       </c>
       <c r="JH85" s="11">
+        <v>91900</v>
+      </c>
+      <c r="JI85" s="11">
         <v>92500</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>96</v>
       </c>
@@ -65379,10 +65613,13 @@
         <v>32400</v>
       </c>
       <c r="JH86" s="11">
-        <v>32500</v>
+        <v>32300</v>
+      </c>
+      <c r="JI86" s="11">
+        <v>32300</v>
       </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>97</v>
       </c>
@@ -66183,10 +66420,13 @@
         <v>27100</v>
       </c>
       <c r="JH87" s="11">
-        <v>26800</v>
+        <v>26700</v>
+      </c>
+      <c r="JI87" s="11">
+        <v>26500</v>
       </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>98</v>
       </c>
@@ -66987,10 +67227,13 @@
         <v>47500</v>
       </c>
       <c r="JH88" s="11">
-        <v>47700</v>
+        <v>48900</v>
+      </c>
+      <c r="JI88" s="11">
+        <v>48800</v>
       </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>99</v>
       </c>
@@ -67791,10 +68034,13 @@
         <v>201900</v>
       </c>
       <c r="JH89" s="11">
-        <v>204000</v>
+        <v>205300</v>
+      </c>
+      <c r="JI89" s="11">
+        <v>205200</v>
       </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>100</v>
       </c>
@@ -68595,10 +68841,13 @@
         <v>52700</v>
       </c>
       <c r="JH90" s="11">
-        <v>53600</v>
+        <v>53900</v>
+      </c>
+      <c r="JI90" s="11">
+        <v>55900</v>
       </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>101</v>
       </c>
@@ -69399,10 +69648,13 @@
         <v>44900</v>
       </c>
       <c r="JH91" s="11">
-        <v>45800</v>
+        <v>46000</v>
+      </c>
+      <c r="JI91" s="11">
+        <v>48000</v>
       </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>103</v>
       </c>
@@ -70203,10 +70455,13 @@
         <v>149200</v>
       </c>
       <c r="JH92" s="11">
-        <v>150400</v>
+        <v>151400</v>
+      </c>
+      <c r="JI92" s="11">
+        <v>149300</v>
       </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>104</v>
       </c>
@@ -71007,10 +71262,13 @@
         <v>19900</v>
       </c>
       <c r="JH93" s="11">
-        <v>20700</v>
+        <v>21300</v>
+      </c>
+      <c r="JI93" s="11">
+        <v>21100</v>
       </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>105</v>
       </c>
@@ -71811,10 +72069,13 @@
         <v>129300</v>
       </c>
       <c r="JH94" s="11">
-        <v>129700</v>
+        <v>130100</v>
+      </c>
+      <c r="JI94" s="11">
+        <v>128200</v>
       </c>
     </row>
-    <row r="95" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>106</v>
       </c>
@@ -72615,10 +72876,13 @@
         <v>124200</v>
       </c>
       <c r="JH95" s="11">
-        <v>124500</v>
+        <v>124900</v>
+      </c>
+      <c r="JI95" s="11">
+        <v>123000</v>
       </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>107</v>
       </c>
@@ -73419,10 +73683,13 @@
         <v>54400</v>
       </c>
       <c r="JH96" s="11">
-        <v>55600</v>
+        <v>55500</v>
+      </c>
+      <c r="JI96" s="11">
+        <v>54600</v>
       </c>
     </row>
-    <row r="97" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>108</v>
       </c>
@@ -74223,10 +74490,13 @@
         <v>69800</v>
       </c>
       <c r="JH97" s="11">
-        <v>68900</v>
+        <v>69400</v>
+      </c>
+      <c r="JI97" s="11">
+        <v>68400</v>
       </c>
     </row>
-    <row r="98" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>110</v>
       </c>
@@ -75027,10 +75297,13 @@
         <v>48500</v>
       </c>
       <c r="JH98" s="11">
-        <v>47300</v>
+        <v>48300</v>
+      </c>
+      <c r="JI98" s="11">
+        <v>47900</v>
       </c>
     </row>
-    <row r="99" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>111</v>
       </c>
@@ -75831,10 +76104,13 @@
         <v>146100</v>
       </c>
       <c r="JH99" s="11">
-        <v>152400</v>
+        <v>146100</v>
+      </c>
+      <c r="JI99" s="11">
+        <v>153800</v>
       </c>
     </row>
-    <row r="100" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>112</v>
       </c>
@@ -76637,8 +76913,11 @@
       <c r="JH100" s="11">
         <v>11000</v>
       </c>
+      <c r="JI100" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="101" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>113</v>
       </c>
@@ -77441,8 +77720,11 @@
       <c r="JH101" s="11">
         <v>1100</v>
       </c>
+      <c r="JI101" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="102" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>114</v>
       </c>
@@ -78245,8 +78527,11 @@
       <c r="JH102" s="11">
         <v>9900</v>
       </c>
+      <c r="JI102" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="103" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>115</v>
       </c>
@@ -79047,10 +79332,13 @@
         <v>135000</v>
       </c>
       <c r="JH103" s="11">
-        <v>141400</v>
+        <v>135100</v>
+      </c>
+      <c r="JI103" s="11">
+        <v>142800</v>
       </c>
     </row>
-    <row r="104" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>116</v>
       </c>
@@ -79851,10 +80139,13 @@
         <v>30700</v>
       </c>
       <c r="JH104" s="11">
-        <v>29900</v>
+        <v>30000</v>
+      </c>
+      <c r="JI104" s="11">
+        <v>31300</v>
       </c>
     </row>
-    <row r="105" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>117</v>
       </c>
@@ -80655,10 +80946,13 @@
         <v>19300</v>
       </c>
       <c r="JH105" s="11">
-        <v>18500</v>
+        <v>18600</v>
+      </c>
+      <c r="JI105" s="11">
+        <v>19800</v>
       </c>
     </row>
-    <row r="106" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>118</v>
       </c>
@@ -81461,8 +81755,11 @@
       <c r="JH106" s="11">
         <v>11400</v>
       </c>
+      <c r="JI106" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="107" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>119</v>
       </c>
@@ -82263,10 +82560,13 @@
         <v>104300</v>
       </c>
       <c r="JH107" s="11">
+        <v>105100</v>
+      </c>
+      <c r="JI107" s="11">
         <v>111500</v>
       </c>
     </row>
-    <row r="108" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>120</v>
       </c>
@@ -83067,10 +83367,13 @@
         <v>61800</v>
       </c>
       <c r="JH108" s="11">
-        <v>69000</v>
+        <v>62600</v>
+      </c>
+      <c r="JI108" s="11">
+        <v>70700</v>
       </c>
     </row>
-    <row r="109" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>121</v>
       </c>
@@ -83873,8 +84176,11 @@
       <c r="JH109" s="11">
         <v>42500</v>
       </c>
+      <c r="JI109" s="11">
+        <v>40800</v>
+      </c>
     </row>
-    <row r="110" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>122</v>
       </c>
@@ -84677,8 +84983,11 @@
       <c r="JH110" s="11">
         <v>19200</v>
       </c>
+      <c r="JI110" s="11">
+        <v>18400</v>
+      </c>
     </row>
-    <row r="111" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>123</v>
       </c>
@@ -85481,8 +85790,11 @@
       <c r="JH111" s="11">
         <v>15800</v>
       </c>
+      <c r="JI111" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="112" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>124</v>
       </c>
@@ -86284,6 +86596,9 @@
       </c>
       <c r="JH112" s="11">
         <v>7500</v>
+      </c>
+      <c r="JI112" s="11">
+        <v>7400</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">

--- a/lowe/edd/data/ORAN$HWS.xlsx
+++ b/lowe/edd/data/ORAN$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1796,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI121"/>
+  <dimension ref="A1:JJ121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,12 +1813,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1846,12 +1846,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2669,11 +2669,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3477,10 +3480,13 @@
         <v>1577900</v>
       </c>
       <c r="JI9" s="11">
-        <v>1582000</v>
+        <v>1582500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1588300</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4284,10 +4290,13 @@
         <v>1483000</v>
       </c>
       <c r="JI10" s="11">
-        <v>1502200</v>
+        <v>1502900</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>1512900</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5091,10 +5100,13 @@
         <v>94800</v>
       </c>
       <c r="JI11" s="11">
-        <v>79800</v>
+        <v>79600</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>75400</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5900,8 +5912,11 @@
       <c r="JI12" s="12">
         <v>0.05</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>4.7E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6705,10 +6720,13 @@
         <v>1588900</v>
       </c>
       <c r="JI13" s="11">
-        <v>1597300</v>
+        <v>1598200</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1618000</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7514,8 +7532,11 @@
       <c r="JI14" s="11">
         <v>1900</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>1900</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8319,10 +8340,13 @@
         <v>1587000</v>
       </c>
       <c r="JI15" s="11">
-        <v>1595400</v>
+        <v>1596300</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>1616100</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9126,10 +9150,13 @@
         <v>1440900</v>
       </c>
       <c r="JI16" s="11">
-        <v>1441600</v>
+        <v>1442500</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>1456000</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9933,10 +9960,13 @@
         <v>251800</v>
       </c>
       <c r="JI17" s="11">
-        <v>253600</v>
+        <v>254600</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>255700</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10740,10 +10770,13 @@
         <v>102800</v>
       </c>
       <c r="JI18" s="11">
-        <v>103100</v>
+        <v>104000</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>105000</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11549,8 +11582,11 @@
       <c r="JI19" s="11">
         <v>300</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12354,10 +12390,13 @@
         <v>102500</v>
       </c>
       <c r="JI20" s="11">
-        <v>102800</v>
+        <v>103700</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>104700</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13161,10 +13200,13 @@
         <v>22600</v>
       </c>
       <c r="JI21" s="11">
-        <v>22500</v>
+        <v>22600</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>22100</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13968,10 +14010,13 @@
         <v>9800</v>
       </c>
       <c r="JI22" s="11">
-        <v>9900</v>
+        <v>10700</v>
+      </c>
+      <c r="JJ22" s="11">
+        <v>10500</v>
       </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14777,8 +14822,11 @@
       <c r="JI23" s="11">
         <v>70400</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>72100</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15582,10 +15630,13 @@
         <v>149000</v>
       </c>
       <c r="JI24" s="11">
-        <v>150500</v>
+        <v>150600</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>150700</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16391,8 +16442,11 @@
       <c r="JI25" s="11">
         <v>111400</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>111500</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17196,10 +17250,13 @@
         <v>20200</v>
       </c>
       <c r="JI26" s="11">
-        <v>20900</v>
+        <v>21100</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>21000</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -18005,8 +18062,11 @@
       <c r="JI27" s="11">
         <v>7100</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18812,8 +18872,11 @@
       <c r="JI28" s="11">
         <v>33400</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>33600</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19619,8 +19682,11 @@
       <c r="JI29" s="11">
         <v>13500</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20424,10 +20490,13 @@
         <v>12400</v>
       </c>
       <c r="JI30" s="11">
-        <v>12300</v>
+        <v>12400</v>
+      </c>
+      <c r="JJ30" s="11">
+        <v>12600</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -21233,8 +21302,11 @@
       <c r="JI31" s="11">
         <v>12600</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>12600</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -22038,10 +22110,13 @@
         <v>39300</v>
       </c>
       <c r="JI32" s="11">
-        <v>39100</v>
+        <v>39200</v>
+      </c>
+      <c r="JJ32" s="11">
+        <v>39200</v>
       </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -22845,10 +22920,13 @@
         <v>1335200</v>
       </c>
       <c r="JI33" s="11">
-        <v>1341800</v>
+        <v>1341700</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>1360400</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23652,10 +23730,13 @@
         <v>1189100</v>
       </c>
       <c r="JI34" s="11">
-        <v>1188000</v>
+        <v>1187900</v>
+      </c>
+      <c r="JJ34" s="11">
+        <v>1200300</v>
       </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24459,10 +24540,13 @@
         <v>250600</v>
       </c>
       <c r="JI35" s="11">
-        <v>247600</v>
+        <v>247900</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>250300</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -25266,10 +25350,13 @@
         <v>77300</v>
       </c>
       <c r="JI36" s="11">
-        <v>76400</v>
+        <v>76500</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>76600</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -26073,10 +26160,13 @@
         <v>48000</v>
       </c>
       <c r="JI37" s="11">
-        <v>47200</v>
+        <v>47300</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>47300</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -26882,8 +26972,11 @@
       <c r="JI38" s="11">
         <v>23900</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>23900</v>
+      </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -27689,8 +27782,11 @@
       <c r="JI39" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ39" s="11">
+        <v>5400</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -28494,10 +28590,13 @@
         <v>140600</v>
       </c>
       <c r="JI40" s="11">
-        <v>138700</v>
+        <v>138900</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>140200</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -29301,10 +29400,13 @@
         <v>16400</v>
       </c>
       <c r="JI41" s="11">
-        <v>16200</v>
+        <v>16300</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>16300</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -30110,8 +30212,11 @@
       <c r="JI42" s="11">
         <v>11200</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>10900</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -30915,10 +31020,13 @@
         <v>29500</v>
       </c>
       <c r="JI43" s="11">
-        <v>28600</v>
+        <v>28700</v>
+      </c>
+      <c r="JJ43" s="11">
+        <v>28800</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -31722,10 +31830,13 @@
         <v>27200</v>
       </c>
       <c r="JI44" s="11">
-        <v>26400</v>
+        <v>26500</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>26700</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32531,8 +32642,11 @@
       <c r="JI45" s="11">
         <v>11100</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -33336,10 +33450,13 @@
         <v>15500</v>
       </c>
       <c r="JI46" s="11">
-        <v>15200</v>
+        <v>15300</v>
+      </c>
+      <c r="JJ46" s="11">
+        <v>15700</v>
       </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -34145,8 +34262,11 @@
       <c r="JI47" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -34952,8 +35072,11 @@
       <c r="JI48" s="11">
         <v>25300</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>26200</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35759,8 +35882,11 @@
       <c r="JI49" s="11">
         <v>32500</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>33500</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36566,8 +36692,11 @@
       <c r="JI50" s="11">
         <v>3000</v>
       </c>
+      <c r="JJ50" s="11">
+        <v>2900</v>
+      </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37373,8 +37502,11 @@
       <c r="JI51" s="11">
         <v>29500</v>
       </c>
+      <c r="JJ51" s="11">
+        <v>30600</v>
+      </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -38178,10 +38310,13 @@
         <v>8400</v>
       </c>
       <c r="JI52" s="11">
-        <v>8700</v>
+        <v>8600</v>
+      </c>
+      <c r="JJ52" s="11">
+        <v>8900</v>
       </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -38987,8 +39122,11 @@
       <c r="JI53" s="11">
         <v>6100</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>6200</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>56</v>
       </c>
@@ -39792,10 +39930,13 @@
         <v>24500</v>
       </c>
       <c r="JI54" s="11">
-        <v>24500</v>
+        <v>24600</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>24800</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>57</v>
       </c>
@@ -40601,8 +40742,11 @@
       <c r="JI55" s="11">
         <v>10100</v>
       </c>
+      <c r="JJ55" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>58</v>
       </c>
@@ -41406,10 +41550,13 @@
         <v>6000</v>
       </c>
       <c r="JI56" s="11">
-        <v>5900</v>
+        <v>6000</v>
+      </c>
+      <c r="JJ56" s="11">
+        <v>6000</v>
       </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>60</v>
       </c>
@@ -42213,10 +42360,13 @@
         <v>113700</v>
       </c>
       <c r="JI57" s="11">
-        <v>113400</v>
+        <v>112900</v>
+      </c>
+      <c r="JJ57" s="11">
+        <v>113600</v>
       </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -43020,10 +43170,13 @@
         <v>78800</v>
       </c>
       <c r="JI58" s="11">
-        <v>77900</v>
+        <v>77500</v>
+      </c>
+      <c r="JJ58" s="11">
+        <v>77800</v>
       </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -43827,10 +43980,13 @@
         <v>42900</v>
       </c>
       <c r="JI59" s="11">
-        <v>42600</v>
+        <v>42100</v>
+      </c>
+      <c r="JJ59" s="11">
+        <v>41900</v>
       </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>63</v>
       </c>
@@ -44636,8 +44792,11 @@
       <c r="JI60" s="11">
         <v>16900</v>
       </c>
+      <c r="JJ60" s="11">
+        <v>16800</v>
+      </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>64</v>
       </c>
@@ -45441,10 +45600,13 @@
         <v>16900</v>
       </c>
       <c r="JI61" s="11">
-        <v>16900</v>
+        <v>16400</v>
+      </c>
+      <c r="JJ61" s="11">
+        <v>16300</v>
       </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>67</v>
       </c>
@@ -46250,8 +46412,11 @@
       <c r="JI62" s="11">
         <v>23000</v>
       </c>
+      <c r="JJ62" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>68</v>
       </c>
@@ -47057,8 +47222,11 @@
       <c r="JI63" s="11">
         <v>8200</v>
       </c>
+      <c r="JJ63" s="11">
+        <v>8300</v>
+      </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>69</v>
       </c>
@@ -47864,8 +48032,11 @@
       <c r="JI64" s="11">
         <v>14800</v>
       </c>
+      <c r="JJ64" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>71</v>
       </c>
@@ -48669,10 +48840,13 @@
         <v>34900</v>
       </c>
       <c r="JI65" s="11">
-        <v>35500</v>
+        <v>35400</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>35800</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>72</v>
       </c>
@@ -49478,8 +49652,11 @@
       <c r="JI66" s="11">
         <v>30700</v>
       </c>
+      <c r="JJ66" s="11">
+        <v>31200</v>
+      </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>74</v>
       </c>
@@ -50283,10 +50460,13 @@
         <v>320900</v>
       </c>
       <c r="JI67" s="11">
-        <v>322300</v>
+        <v>321300</v>
+      </c>
+      <c r="JJ67" s="11">
+        <v>326100</v>
       </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>75</v>
       </c>
@@ -51090,10 +51270,13 @@
         <v>140200</v>
       </c>
       <c r="JI68" s="11">
-        <v>140500</v>
+        <v>139800</v>
+      </c>
+      <c r="JJ68" s="11">
+        <v>140700</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>76</v>
       </c>
@@ -51899,8 +52082,11 @@
       <c r="JI69" s="11">
         <v>17400</v>
       </c>
+      <c r="JJ69" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>77</v>
       </c>
@@ -52706,8 +52892,11 @@
       <c r="JI70" s="11">
         <v>15000</v>
       </c>
+      <c r="JJ70" s="11">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>78</v>
       </c>
@@ -53513,8 +53702,11 @@
       <c r="JI71" s="11">
         <v>28200</v>
       </c>
+      <c r="JJ71" s="11">
+        <v>27300</v>
+      </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>79</v>
       </c>
@@ -54318,10 +54510,13 @@
         <v>25400</v>
       </c>
       <c r="JI72" s="11">
-        <v>25400</v>
+        <v>24900</v>
+      </c>
+      <c r="JJ72" s="11">
+        <v>24600</v>
       </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>80</v>
       </c>
@@ -55125,10 +55320,13 @@
         <v>28300</v>
       </c>
       <c r="JI73" s="11">
-        <v>28600</v>
+        <v>28500</v>
+      </c>
+      <c r="JJ73" s="11">
+        <v>30300</v>
       </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>82</v>
       </c>
@@ -55934,8 +56132,11 @@
       <c r="JI74" s="11">
         <v>35400</v>
       </c>
+      <c r="JJ74" s="11">
+        <v>35500</v>
+      </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>83</v>
       </c>
@@ -56739,10 +56940,13 @@
         <v>145300</v>
       </c>
       <c r="JI75" s="11">
-        <v>146400</v>
+        <v>146100</v>
+      </c>
+      <c r="JJ75" s="11">
+        <v>149900</v>
       </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>84</v>
       </c>
@@ -57546,10 +57750,13 @@
         <v>140400</v>
       </c>
       <c r="JI76" s="11">
-        <v>141500</v>
+        <v>141200</v>
+      </c>
+      <c r="JJ76" s="11">
+        <v>144900</v>
       </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>85</v>
       </c>
@@ -58353,10 +58560,13 @@
         <v>68700</v>
       </c>
       <c r="JI77" s="11">
-        <v>71300</v>
+        <v>71100</v>
+      </c>
+      <c r="JJ77" s="11">
+        <v>74900</v>
       </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>86</v>
       </c>
@@ -59160,10 +59370,13 @@
         <v>10000</v>
       </c>
       <c r="JI78" s="11">
-        <v>10000</v>
+        <v>9900</v>
+      </c>
+      <c r="JJ78" s="11">
+        <v>10100</v>
       </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>87</v>
       </c>
@@ -59967,10 +60180,13 @@
         <v>34400</v>
       </c>
       <c r="JI79" s="11">
-        <v>34100</v>
+        <v>33800</v>
+      </c>
+      <c r="JJ79" s="11">
+        <v>33800</v>
       </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>89</v>
       </c>
@@ -60776,8 +60992,11 @@
       <c r="JI80" s="11">
         <v>4900</v>
       </c>
+      <c r="JJ80" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>90</v>
       </c>
@@ -61583,8 +61802,11 @@
       <c r="JI81" s="11">
         <v>227100</v>
       </c>
+      <c r="JJ81" s="11">
+        <v>228400</v>
+      </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>91</v>
       </c>
@@ -62390,8 +62612,11 @@
       <c r="JI82" s="11">
         <v>27000</v>
       </c>
+      <c r="JJ82" s="11">
+        <v>29600</v>
+      </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>92</v>
       </c>
@@ -63197,8 +63422,11 @@
       <c r="JI83" s="11">
         <v>7500</v>
       </c>
+      <c r="JJ83" s="11">
+        <v>8100</v>
+      </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>94</v>
       </c>
@@ -64004,8 +64232,11 @@
       <c r="JI84" s="11">
         <v>200100</v>
       </c>
+      <c r="JJ84" s="11">
+        <v>198800</v>
+      </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>95</v>
       </c>
@@ -64809,10 +65040,13 @@
         <v>91900</v>
       </c>
       <c r="JI85" s="11">
-        <v>92500</v>
+        <v>92300</v>
+      </c>
+      <c r="JJ85" s="11">
+        <v>91900</v>
       </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>96</v>
       </c>
@@ -65618,8 +65852,11 @@
       <c r="JI86" s="11">
         <v>32300</v>
       </c>
+      <c r="JJ86" s="11">
+        <v>32200</v>
+      </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>97</v>
       </c>
@@ -66425,8 +66662,11 @@
       <c r="JI87" s="11">
         <v>26500</v>
       </c>
+      <c r="JJ87" s="11">
+        <v>25300</v>
+      </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>98</v>
       </c>
@@ -67230,10 +67470,13 @@
         <v>48900</v>
       </c>
       <c r="JI88" s="11">
-        <v>48800</v>
+        <v>49000</v>
+      </c>
+      <c r="JJ88" s="11">
+        <v>49400</v>
       </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>99</v>
       </c>
@@ -68037,10 +68280,13 @@
         <v>205300</v>
       </c>
       <c r="JI89" s="11">
-        <v>205200</v>
+        <v>206100</v>
+      </c>
+      <c r="JJ89" s="11">
+        <v>208300</v>
       </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>100</v>
       </c>
@@ -68844,10 +69090,13 @@
         <v>53900</v>
       </c>
       <c r="JI90" s="11">
-        <v>55900</v>
+        <v>55700</v>
+      </c>
+      <c r="JJ90" s="11">
+        <v>58500</v>
       </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>101</v>
       </c>
@@ -69651,10 +69900,13 @@
         <v>46000</v>
       </c>
       <c r="JI91" s="11">
-        <v>48000</v>
+        <v>47600</v>
+      </c>
+      <c r="JJ91" s="11">
+        <v>50200</v>
       </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>103</v>
       </c>
@@ -70458,10 +70710,13 @@
         <v>151400</v>
       </c>
       <c r="JI92" s="11">
-        <v>149300</v>
+        <v>150400</v>
+      </c>
+      <c r="JJ92" s="11">
+        <v>149800</v>
       </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>104</v>
       </c>
@@ -71265,10 +71520,13 @@
         <v>21300</v>
       </c>
       <c r="JI93" s="11">
-        <v>21100</v>
+        <v>21000</v>
+      </c>
+      <c r="JJ93" s="11">
+        <v>21000</v>
       </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>105</v>
       </c>
@@ -72072,10 +72330,13 @@
         <v>130100</v>
       </c>
       <c r="JI94" s="11">
-        <v>128200</v>
+        <v>129400</v>
+      </c>
+      <c r="JJ94" s="11">
+        <v>128800</v>
       </c>
     </row>
-    <row r="95" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>106</v>
       </c>
@@ -72879,10 +73140,13 @@
         <v>124900</v>
       </c>
       <c r="JI95" s="11">
-        <v>123000</v>
+        <v>124200</v>
+      </c>
+      <c r="JJ95" s="11">
+        <v>123700</v>
       </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>107</v>
       </c>
@@ -73686,10 +73950,13 @@
         <v>55500</v>
       </c>
       <c r="JI96" s="11">
-        <v>54600</v>
+        <v>55400</v>
+      </c>
+      <c r="JJ96" s="11">
+        <v>55400</v>
       </c>
     </row>
-    <row r="97" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>108</v>
       </c>
@@ -74493,10 +74760,13 @@
         <v>69400</v>
       </c>
       <c r="JI97" s="11">
-        <v>68400</v>
+        <v>68800</v>
+      </c>
+      <c r="JJ97" s="11">
+        <v>68300</v>
       </c>
     </row>
-    <row r="98" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>110</v>
       </c>
@@ -75300,10 +75570,13 @@
         <v>48300</v>
       </c>
       <c r="JI98" s="11">
-        <v>47900</v>
+        <v>48000</v>
+      </c>
+      <c r="JJ98" s="11">
+        <v>48800</v>
       </c>
     </row>
-    <row r="99" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>111</v>
       </c>
@@ -76109,8 +76382,11 @@
       <c r="JI99" s="11">
         <v>153800</v>
       </c>
+      <c r="JJ99" s="11">
+        <v>160100</v>
+      </c>
     </row>
-    <row r="100" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>112</v>
       </c>
@@ -76916,8 +77192,11 @@
       <c r="JI100" s="11">
         <v>11000</v>
       </c>
+      <c r="JJ100" s="11">
+        <v>11000</v>
+      </c>
     </row>
-    <row r="101" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>113</v>
       </c>
@@ -77723,8 +78002,11 @@
       <c r="JI101" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ101" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="102" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>114</v>
       </c>
@@ -78530,8 +78812,11 @@
       <c r="JI102" s="11">
         <v>9900</v>
       </c>
+      <c r="JJ102" s="11">
+        <v>9900</v>
+      </c>
     </row>
-    <row r="103" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>115</v>
       </c>
@@ -79337,8 +79622,11 @@
       <c r="JI103" s="11">
         <v>142800</v>
       </c>
+      <c r="JJ103" s="11">
+        <v>149100</v>
+      </c>
     </row>
-    <row r="104" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>116</v>
       </c>
@@ -80144,8 +80432,11 @@
       <c r="JI104" s="11">
         <v>31300</v>
       </c>
+      <c r="JJ104" s="11">
+        <v>33300</v>
+      </c>
     </row>
-    <row r="105" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>117</v>
       </c>
@@ -80951,8 +81242,11 @@
       <c r="JI105" s="11">
         <v>19800</v>
       </c>
+      <c r="JJ105" s="11">
+        <v>21800</v>
+      </c>
     </row>
-    <row r="106" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>118</v>
       </c>
@@ -81758,8 +82052,11 @@
       <c r="JI106" s="11">
         <v>11500</v>
       </c>
+      <c r="JJ106" s="11">
+        <v>11500</v>
+      </c>
     </row>
-    <row r="107" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>119</v>
       </c>
@@ -82565,8 +82862,11 @@
       <c r="JI107" s="11">
         <v>111500</v>
       </c>
+      <c r="JJ107" s="11">
+        <v>115800</v>
+      </c>
     </row>
-    <row r="108" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>120</v>
       </c>
@@ -83372,8 +83672,11 @@
       <c r="JI108" s="11">
         <v>70700</v>
       </c>
+      <c r="JJ108" s="11">
+        <v>75200</v>
+      </c>
     </row>
-    <row r="109" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>121</v>
       </c>
@@ -84179,8 +84482,11 @@
       <c r="JI109" s="11">
         <v>40800</v>
       </c>
+      <c r="JJ109" s="11">
+        <v>40600</v>
+      </c>
     </row>
-    <row r="110" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>122</v>
       </c>
@@ -84986,8 +85292,11 @@
       <c r="JI110" s="11">
         <v>18400</v>
       </c>
+      <c r="JJ110" s="11">
+        <v>18500</v>
+      </c>
     </row>
-    <row r="111" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>123</v>
       </c>
@@ -85793,8 +86102,11 @@
       <c r="JI111" s="11">
         <v>15000</v>
       </c>
+      <c r="JJ111" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="112" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>124</v>
       </c>
@@ -86599,6 +86911,9 @@
       </c>
       <c r="JI112" s="11">
         <v>7400</v>
+      </c>
+      <c r="JJ112" s="11">
+        <v>7600</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">

--- a/lowe/edd/data/ORAN$HWS.xlsx
+++ b/lowe/edd/data/ORAN$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -629,13 +629,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1796,7 +1796,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ121"/>
+  <dimension ref="A1:JL121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,12 +1813,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1846,12 +1846,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2672,11 +2672,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3483,10 +3489,16 @@
         <v>1582500</v>
       </c>
       <c r="JJ9" s="11">
-        <v>1588300</v>
+        <v>1588800</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>1591000</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1591600</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4293,10 +4305,16 @@
         <v>1502900</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1512900</v>
+        <v>1513500</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>1526500</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1532100</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -5105,8 +5123,14 @@
       <c r="JJ11" s="11">
         <v>75400</v>
       </c>
+      <c r="JK11" s="11">
+        <v>64500</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>59500</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5915,8 +5939,14 @@
       <c r="JJ12" s="12">
         <v>4.7E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>3.6999999999999998E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6723,10 +6753,16 @@
         <v>1598200</v>
       </c>
       <c r="JJ13" s="11">
-        <v>1618000</v>
+        <v>1618700</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>1625800</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1632400</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7535,8 +7571,14 @@
       <c r="JJ14" s="11">
         <v>1900</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1700</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8343,10 +8385,16 @@
         <v>1596300</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1616100</v>
+        <v>1616800</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1624100</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1630800</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -9153,10 +9201,16 @@
         <v>1442500</v>
       </c>
       <c r="JJ16" s="11">
-        <v>1456000</v>
+        <v>1456700</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>1462800</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1471600</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9963,10 +10017,16 @@
         <v>254600</v>
       </c>
       <c r="JJ17" s="11">
-        <v>255700</v>
+        <v>256000</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>255900</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>255100</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10773,10 +10833,16 @@
         <v>104000</v>
       </c>
       <c r="JJ18" s="11">
-        <v>105000</v>
+        <v>105300</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>103600</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>102900</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11585,8 +11651,14 @@
       <c r="JJ19" s="11">
         <v>300</v>
       </c>
+      <c r="JK19" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12393,10 +12465,16 @@
         <v>103700</v>
       </c>
       <c r="JJ20" s="11">
-        <v>104700</v>
+        <v>105000</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>103300</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>102600</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -13203,10 +13281,16 @@
         <v>22600</v>
       </c>
       <c r="JJ21" s="11">
-        <v>22100</v>
+        <v>22300</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>21700</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>21700</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -14013,10 +14097,16 @@
         <v>10700</v>
       </c>
       <c r="JJ22" s="11">
-        <v>10500</v>
+        <v>10600</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>10200</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>9900</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14825,8 +14915,14 @@
       <c r="JJ23" s="11">
         <v>72100</v>
       </c>
+      <c r="JK23" s="11">
+        <v>71400</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>71000</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15635,8 +15731,14 @@
       <c r="JJ24" s="11">
         <v>150700</v>
       </c>
+      <c r="JK24" s="11">
+        <v>152300</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>152200</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -16443,10 +16545,16 @@
         <v>111400</v>
       </c>
       <c r="JJ25" s="11">
-        <v>111500</v>
+        <v>111300</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>113000</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>113000</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -17255,8 +17363,14 @@
       <c r="JJ26" s="11">
         <v>21000</v>
       </c>
+      <c r="JK26" s="11">
+        <v>21300</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>21500</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -18065,8 +18179,14 @@
       <c r="JJ27" s="11">
         <v>7100</v>
       </c>
+      <c r="JK27" s="11">
+        <v>7100</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>7100</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18873,10 +18993,16 @@
         <v>33400</v>
       </c>
       <c r="JJ28" s="11">
-        <v>33600</v>
+        <v>33100</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>33400</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>33300</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19685,8 +19811,14 @@
       <c r="JJ29" s="11">
         <v>13500</v>
       </c>
+      <c r="JK29" s="11">
+        <v>13700</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20493,10 +20625,16 @@
         <v>12400</v>
       </c>
       <c r="JJ30" s="11">
-        <v>12600</v>
+        <v>12200</v>
+      </c>
+      <c r="JK30" s="11">
+        <v>12200</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>12300</v>
       </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>27</v>
       </c>
@@ -21305,8 +21443,14 @@
       <c r="JJ31" s="11">
         <v>12600</v>
       </c>
+      <c r="JK31" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -22113,10 +22257,16 @@
         <v>39200</v>
       </c>
       <c r="JJ32" s="11">
+        <v>39400</v>
+      </c>
+      <c r="JK32" s="11">
+        <v>39300</v>
+      </c>
+      <c r="JL32" s="11">
         <v>39200</v>
       </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -22923,10 +23073,16 @@
         <v>1341700</v>
       </c>
       <c r="JJ33" s="11">
-        <v>1360400</v>
+        <v>1360800</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>1368200</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>1375700</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -23733,10 +23889,16 @@
         <v>1187900</v>
       </c>
       <c r="JJ34" s="11">
-        <v>1200300</v>
+        <v>1200700</v>
+      </c>
+      <c r="JK34" s="11">
+        <v>1206900</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>1216500</v>
       </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -24543,10 +24705,16 @@
         <v>247900</v>
       </c>
       <c r="JJ35" s="11">
-        <v>250300</v>
+        <v>250200</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>255100</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>256700</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -25353,10 +25521,16 @@
         <v>76500</v>
       </c>
       <c r="JJ36" s="11">
-        <v>76600</v>
+        <v>76500</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>76200</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>76300</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -26163,10 +26337,16 @@
         <v>47300</v>
       </c>
       <c r="JJ37" s="11">
+        <v>47400</v>
+      </c>
+      <c r="JK37" s="11">
         <v>47300</v>
       </c>
+      <c r="JL37" s="11">
+        <v>47400</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -26973,10 +27153,16 @@
         <v>23900</v>
       </c>
       <c r="JJ38" s="11">
-        <v>23900</v>
+        <v>23700</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>23600</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>23600</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -27785,8 +27971,14 @@
       <c r="JJ39" s="11">
         <v>5400</v>
       </c>
+      <c r="JK39" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -28593,10 +28785,16 @@
         <v>138900</v>
       </c>
       <c r="JJ40" s="11">
-        <v>140200</v>
+        <v>140300</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>144500</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>145600</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -29405,8 +29603,14 @@
       <c r="JJ41" s="11">
         <v>16300</v>
       </c>
+      <c r="JK41" s="11">
+        <v>16200</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>16300</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -30213,10 +30417,16 @@
         <v>11200</v>
       </c>
       <c r="JJ42" s="11">
+        <v>11000</v>
+      </c>
+      <c r="JK42" s="11">
         <v>10900</v>
       </c>
+      <c r="JL42" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -31023,10 +31233,16 @@
         <v>28700</v>
       </c>
       <c r="JJ43" s="11">
-        <v>28800</v>
+        <v>28700</v>
+      </c>
+      <c r="JK43" s="11">
+        <v>29000</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>29100</v>
       </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -31835,8 +32051,14 @@
       <c r="JJ44" s="11">
         <v>26700</v>
       </c>
+      <c r="JK44" s="11">
+        <v>27000</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>27100</v>
+      </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>45</v>
       </c>
@@ -32645,8 +32867,14 @@
       <c r="JJ45" s="11">
         <v>11300</v>
       </c>
+      <c r="JK45" s="11">
+        <v>11600</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>46</v>
       </c>
@@ -33453,10 +33681,16 @@
         <v>15300</v>
       </c>
       <c r="JJ46" s="11">
-        <v>15700</v>
+        <v>15800</v>
+      </c>
+      <c r="JK46" s="11">
+        <v>17000</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>17400</v>
       </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>47</v>
       </c>
@@ -34265,8 +34499,14 @@
       <c r="JJ47" s="11">
         <v>4600</v>
       </c>
+      <c r="JK47" s="11">
+        <v>4900</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>48</v>
       </c>
@@ -35075,8 +35315,14 @@
       <c r="JJ48" s="11">
         <v>26200</v>
       </c>
+      <c r="JK48" s="11">
+        <v>28400</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>29000</v>
+      </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>50</v>
       </c>
@@ -35883,10 +36129,16 @@
         <v>32500</v>
       </c>
       <c r="JJ49" s="11">
-        <v>33500</v>
+        <v>33400</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>34400</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>34800</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>51</v>
       </c>
@@ -36693,10 +36945,16 @@
         <v>3000</v>
       </c>
       <c r="JJ50" s="11">
-        <v>2900</v>
+        <v>3100</v>
+      </c>
+      <c r="JK50" s="11">
+        <v>3100</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>3000</v>
       </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>52</v>
       </c>
@@ -37503,10 +37761,16 @@
         <v>29500</v>
       </c>
       <c r="JJ51" s="11">
-        <v>30600</v>
+        <v>30300</v>
+      </c>
+      <c r="JK51" s="11">
+        <v>31300</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>31800</v>
       </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>53</v>
       </c>
@@ -38315,8 +38579,14 @@
       <c r="JJ52" s="11">
         <v>8900</v>
       </c>
+      <c r="JK52" s="11">
+        <v>9900</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>10600</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>54</v>
       </c>
@@ -39125,8 +39395,14 @@
       <c r="JJ53" s="11">
         <v>6200</v>
       </c>
+      <c r="JK53" s="11">
+        <v>6300</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>56</v>
       </c>
@@ -39935,8 +40211,14 @@
       <c r="JJ54" s="11">
         <v>24800</v>
       </c>
+      <c r="JK54" s="11">
+        <v>24800</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>25000</v>
+      </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>57</v>
       </c>
@@ -40745,8 +41027,14 @@
       <c r="JJ55" s="11">
         <v>10100</v>
       </c>
+      <c r="JK55" s="11">
+        <v>10000</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>10100</v>
+      </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>58</v>
       </c>
@@ -41555,8 +41843,14 @@
       <c r="JJ56" s="11">
         <v>6000</v>
       </c>
+      <c r="JK56" s="11">
+        <v>6000</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>60</v>
       </c>
@@ -42363,10 +42657,16 @@
         <v>112900</v>
       </c>
       <c r="JJ57" s="11">
-        <v>113600</v>
+        <v>113400</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>113200</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>113800</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>61</v>
       </c>
@@ -43173,10 +43473,16 @@
         <v>77500</v>
       </c>
       <c r="JJ58" s="11">
-        <v>77800</v>
+        <v>77700</v>
+      </c>
+      <c r="JK58" s="11">
+        <v>77600</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>78100</v>
       </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>62</v>
       </c>
@@ -43983,10 +44289,16 @@
         <v>42100</v>
       </c>
       <c r="JJ59" s="11">
+        <v>42000</v>
+      </c>
+      <c r="JK59" s="11">
         <v>41900</v>
       </c>
+      <c r="JL59" s="11">
+        <v>42100</v>
+      </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>63</v>
       </c>
@@ -44793,10 +45105,16 @@
         <v>16900</v>
       </c>
       <c r="JJ60" s="11">
-        <v>16800</v>
+        <v>16900</v>
+      </c>
+      <c r="JK60" s="11">
+        <v>17000</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>16900</v>
       </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>64</v>
       </c>
@@ -45603,10 +45921,16 @@
         <v>16400</v>
       </c>
       <c r="JJ61" s="11">
-        <v>16300</v>
+        <v>16100</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>15800</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>16400</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>67</v>
       </c>
@@ -46415,8 +46739,14 @@
       <c r="JJ62" s="11">
         <v>23300</v>
       </c>
+      <c r="JK62" s="11">
+        <v>23300</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>23300</v>
+      </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>68</v>
       </c>
@@ -47225,8 +47555,14 @@
       <c r="JJ63" s="11">
         <v>8300</v>
       </c>
+      <c r="JK63" s="11">
+        <v>8300</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>8200</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>69</v>
       </c>
@@ -48035,8 +48371,14 @@
       <c r="JJ64" s="11">
         <v>15000</v>
       </c>
+      <c r="JK64" s="11">
+        <v>15000</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>15100</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>71</v>
       </c>
@@ -48843,10 +49185,16 @@
         <v>35400</v>
       </c>
       <c r="JJ65" s="11">
-        <v>35800</v>
+        <v>35700</v>
+      </c>
+      <c r="JK65" s="11">
+        <v>35600</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>35700</v>
       </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>72</v>
       </c>
@@ -49653,10 +50001,16 @@
         <v>30700</v>
       </c>
       <c r="JJ66" s="11">
+        <v>31100</v>
+      </c>
+      <c r="JK66" s="11">
         <v>31200</v>
       </c>
+      <c r="JL66" s="11">
+        <v>31200</v>
+      </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>74</v>
       </c>
@@ -50463,10 +50817,16 @@
         <v>321300</v>
       </c>
       <c r="JJ67" s="11">
-        <v>326100</v>
+        <v>326500</v>
+      </c>
+      <c r="JK67" s="11">
+        <v>327600</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>326700</v>
       </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>75</v>
       </c>
@@ -51273,10 +51633,16 @@
         <v>139800</v>
       </c>
       <c r="JJ68" s="11">
-        <v>140700</v>
+        <v>141400</v>
+      </c>
+      <c r="JK68" s="11">
+        <v>141500</v>
+      </c>
+      <c r="JL68" s="11">
+        <v>140200</v>
       </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>76</v>
       </c>
@@ -52085,8 +52451,14 @@
       <c r="JJ69" s="11">
         <v>17300</v>
       </c>
+      <c r="JK69" s="11">
+        <v>17600</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>17300</v>
+      </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>77</v>
       </c>
@@ -52893,10 +53265,16 @@
         <v>15000</v>
       </c>
       <c r="JJ70" s="11">
-        <v>15000</v>
+        <v>15400</v>
+      </c>
+      <c r="JK70" s="11">
+        <v>15500</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>15400</v>
       </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>78</v>
       </c>
@@ -53703,10 +54081,16 @@
         <v>28200</v>
       </c>
       <c r="JJ71" s="11">
-        <v>27300</v>
+        <v>27500</v>
+      </c>
+      <c r="JK71" s="11">
+        <v>27500</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>27800</v>
       </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>79</v>
       </c>
@@ -54515,8 +54899,14 @@
       <c r="JJ72" s="11">
         <v>24600</v>
       </c>
+      <c r="JK72" s="11">
+        <v>25300</v>
+      </c>
+      <c r="JL72" s="11">
+        <v>25300</v>
+      </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>80</v>
       </c>
@@ -55323,10 +55713,16 @@
         <v>28500</v>
       </c>
       <c r="JJ73" s="11">
-        <v>30300</v>
+        <v>30200</v>
+      </c>
+      <c r="JK73" s="11">
+        <v>30200</v>
+      </c>
+      <c r="JL73" s="11">
+        <v>29800</v>
       </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>82</v>
       </c>
@@ -56135,8 +56531,14 @@
       <c r="JJ74" s="11">
         <v>35500</v>
       </c>
+      <c r="JK74" s="11">
+        <v>35700</v>
+      </c>
+      <c r="JL74" s="11">
+        <v>35700</v>
+      </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>83</v>
       </c>
@@ -56943,10 +57345,16 @@
         <v>146100</v>
       </c>
       <c r="JJ75" s="11">
-        <v>149900</v>
+        <v>149600</v>
+      </c>
+      <c r="JK75" s="11">
+        <v>150400</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>150800</v>
       </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>84</v>
       </c>
@@ -57753,10 +58161,16 @@
         <v>141200</v>
       </c>
       <c r="JJ76" s="11">
-        <v>144900</v>
+        <v>144600</v>
+      </c>
+      <c r="JK76" s="11">
+        <v>145400</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>145800</v>
       </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>85</v>
       </c>
@@ -58565,8 +58979,14 @@
       <c r="JJ77" s="11">
         <v>74900</v>
       </c>
+      <c r="JK77" s="11">
+        <v>75300</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>76700</v>
+      </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>86</v>
       </c>
@@ -59375,8 +59795,14 @@
       <c r="JJ78" s="11">
         <v>10100</v>
       </c>
+      <c r="JK78" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>9700</v>
+      </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>87</v>
       </c>
@@ -60183,10 +60609,16 @@
         <v>33800</v>
       </c>
       <c r="JJ79" s="11">
-        <v>33800</v>
+        <v>33900</v>
+      </c>
+      <c r="JK79" s="11">
+        <v>33400</v>
+      </c>
+      <c r="JL79" s="11">
+        <v>33100</v>
       </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>89</v>
       </c>
@@ -60995,8 +61427,14 @@
       <c r="JJ80" s="11">
         <v>5000</v>
       </c>
+      <c r="JK80" s="11">
+        <v>5000</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>90</v>
       </c>
@@ -61803,10 +62241,16 @@
         <v>227100</v>
       </c>
       <c r="JJ81" s="11">
-        <v>228400</v>
+        <v>228800</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>230000</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>231900</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>91</v>
       </c>
@@ -62615,8 +63059,14 @@
       <c r="JJ82" s="11">
         <v>29600</v>
       </c>
+      <c r="JK82" s="11">
+        <v>30000</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>29300</v>
+      </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>92</v>
       </c>
@@ -63425,8 +63875,14 @@
       <c r="JJ83" s="11">
         <v>8100</v>
       </c>
+      <c r="JK83" s="11">
+        <v>8100</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>94</v>
       </c>
@@ -64233,10 +64689,16 @@
         <v>200100</v>
       </c>
       <c r="JJ84" s="11">
-        <v>198800</v>
+        <v>199200</v>
+      </c>
+      <c r="JK84" s="11">
+        <v>200000</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>202600</v>
       </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>95</v>
       </c>
@@ -65043,10 +65505,16 @@
         <v>92300</v>
       </c>
       <c r="JJ85" s="11">
-        <v>91900</v>
+        <v>92700</v>
+      </c>
+      <c r="JK85" s="11">
+        <v>93600</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>94300</v>
       </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>96</v>
       </c>
@@ -65853,10 +66321,16 @@
         <v>32300</v>
       </c>
       <c r="JJ86" s="11">
+        <v>32300</v>
+      </c>
+      <c r="JK86" s="11">
         <v>32200</v>
       </c>
+      <c r="JL86" s="11">
+        <v>32300</v>
+      </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>97</v>
       </c>
@@ -66663,10 +67137,16 @@
         <v>26500</v>
       </c>
       <c r="JJ87" s="11">
-        <v>25300</v>
+        <v>24700</v>
+      </c>
+      <c r="JK87" s="11">
+        <v>24800</v>
+      </c>
+      <c r="JL87" s="11">
+        <v>25500</v>
       </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>98</v>
       </c>
@@ -67473,10 +67953,16 @@
         <v>49000</v>
       </c>
       <c r="JJ88" s="11">
+        <v>49500</v>
+      </c>
+      <c r="JK88" s="11">
         <v>49400</v>
       </c>
+      <c r="JL88" s="11">
+        <v>50500</v>
+      </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>99</v>
       </c>
@@ -68283,10 +68769,16 @@
         <v>206100</v>
       </c>
       <c r="JJ89" s="11">
-        <v>208300</v>
+        <v>208200</v>
+      </c>
+      <c r="JK89" s="11">
+        <v>208200</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>213800</v>
       </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>100</v>
       </c>
@@ -69093,10 +69585,16 @@
         <v>55700</v>
       </c>
       <c r="JJ90" s="11">
-        <v>58500</v>
+        <v>58400</v>
+      </c>
+      <c r="JK90" s="11">
+        <v>57800</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>58600</v>
       </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>101</v>
       </c>
@@ -69903,10 +70401,16 @@
         <v>47600</v>
       </c>
       <c r="JJ91" s="11">
-        <v>50200</v>
+        <v>50100</v>
+      </c>
+      <c r="JK91" s="11">
+        <v>49700</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>50400</v>
       </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>103</v>
       </c>
@@ -70715,8 +71219,14 @@
       <c r="JJ92" s="11">
         <v>149800</v>
       </c>
+      <c r="JK92" s="11">
+        <v>150400</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>155200</v>
+      </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>104</v>
       </c>
@@ -71523,10 +72033,16 @@
         <v>21000</v>
       </c>
       <c r="JJ93" s="11">
+        <v>21100</v>
+      </c>
+      <c r="JK93" s="11">
         <v>21000</v>
       </c>
+      <c r="JL93" s="11">
+        <v>21100</v>
+      </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>105</v>
       </c>
@@ -72333,10 +72849,16 @@
         <v>129400</v>
       </c>
       <c r="JJ94" s="11">
-        <v>128800</v>
+        <v>128700</v>
+      </c>
+      <c r="JK94" s="11">
+        <v>129400</v>
+      </c>
+      <c r="JL94" s="11">
+        <v>134100</v>
       </c>
     </row>
-    <row r="95" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>106</v>
       </c>
@@ -73143,10 +73665,16 @@
         <v>124200</v>
       </c>
       <c r="JJ95" s="11">
-        <v>123700</v>
+        <v>123500</v>
+      </c>
+      <c r="JK95" s="11">
+        <v>124200</v>
+      </c>
+      <c r="JL95" s="11">
+        <v>128700</v>
       </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>107</v>
       </c>
@@ -73953,10 +74481,16 @@
         <v>55400</v>
       </c>
       <c r="JJ96" s="11">
-        <v>55400</v>
+        <v>55600</v>
+      </c>
+      <c r="JK96" s="11">
+        <v>56700</v>
+      </c>
+      <c r="JL96" s="11">
+        <v>57500</v>
       </c>
     </row>
-    <row r="97" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>108</v>
       </c>
@@ -74763,10 +75297,16 @@
         <v>68800</v>
       </c>
       <c r="JJ97" s="11">
-        <v>68300</v>
+        <v>67900</v>
+      </c>
+      <c r="JK97" s="11">
+        <v>67500</v>
+      </c>
+      <c r="JL97" s="11">
+        <v>71200</v>
       </c>
     </row>
-    <row r="98" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>110</v>
       </c>
@@ -75575,8 +76115,14 @@
       <c r="JJ98" s="11">
         <v>48800</v>
       </c>
+      <c r="JK98" s="11">
+        <v>48000</v>
+      </c>
+      <c r="JL98" s="11">
+        <v>48600</v>
+      </c>
     </row>
-    <row r="99" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>111</v>
       </c>
@@ -76385,8 +76931,14 @@
       <c r="JJ99" s="11">
         <v>160100</v>
       </c>
+      <c r="JK99" s="11">
+        <v>161300</v>
+      </c>
+      <c r="JL99" s="11">
+        <v>159200</v>
+      </c>
     </row>
-    <row r="100" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>112</v>
       </c>
@@ -77195,8 +77747,14 @@
       <c r="JJ100" s="11">
         <v>11000</v>
       </c>
+      <c r="JK100" s="11">
+        <v>11200</v>
+      </c>
+      <c r="JL100" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="101" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>113</v>
       </c>
@@ -78005,8 +78563,14 @@
       <c r="JJ101" s="11">
         <v>1100</v>
       </c>
+      <c r="JK101" s="11">
+        <v>1100</v>
+      </c>
+      <c r="JL101" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="102" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>114</v>
       </c>
@@ -78815,8 +79379,14 @@
       <c r="JJ102" s="11">
         <v>9900</v>
       </c>
+      <c r="JK102" s="11">
+        <v>10100</v>
+      </c>
+      <c r="JL102" s="11">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="103" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>115</v>
       </c>
@@ -79625,8 +80195,14 @@
       <c r="JJ103" s="11">
         <v>149100</v>
       </c>
+      <c r="JK103" s="11">
+        <v>150100</v>
+      </c>
+      <c r="JL103" s="11">
+        <v>148100</v>
+      </c>
     </row>
-    <row r="104" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>116</v>
       </c>
@@ -80435,8 +81011,14 @@
       <c r="JJ104" s="11">
         <v>33300</v>
       </c>
+      <c r="JK104" s="11">
+        <v>33900</v>
+      </c>
+      <c r="JL104" s="11">
+        <v>34000</v>
+      </c>
     </row>
-    <row r="105" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>117</v>
       </c>
@@ -81245,8 +81827,14 @@
       <c r="JJ105" s="11">
         <v>21800</v>
       </c>
+      <c r="JK105" s="11">
+        <v>22400</v>
+      </c>
+      <c r="JL105" s="11">
+        <v>22700</v>
+      </c>
     </row>
-    <row r="106" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>118</v>
       </c>
@@ -82055,8 +82643,14 @@
       <c r="JJ106" s="11">
         <v>11500</v>
       </c>
+      <c r="JK106" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JL106" s="11">
+        <v>11300</v>
+      </c>
     </row>
-    <row r="107" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>119</v>
       </c>
@@ -82865,8 +83459,14 @@
       <c r="JJ107" s="11">
         <v>115800</v>
       </c>
+      <c r="JK107" s="11">
+        <v>116200</v>
+      </c>
+      <c r="JL107" s="11">
+        <v>114100</v>
+      </c>
     </row>
-    <row r="108" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>120</v>
       </c>
@@ -83675,8 +84275,14 @@
       <c r="JJ108" s="11">
         <v>75200</v>
       </c>
+      <c r="JK108" s="11">
+        <v>75700</v>
+      </c>
+      <c r="JL108" s="11">
+        <v>73600</v>
+      </c>
     </row>
-    <row r="109" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>121</v>
       </c>
@@ -84485,8 +85091,14 @@
       <c r="JJ109" s="11">
         <v>40600</v>
       </c>
+      <c r="JK109" s="11">
+        <v>40500</v>
+      </c>
+      <c r="JL109" s="11">
+        <v>40500</v>
+      </c>
     </row>
-    <row r="110" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>122</v>
       </c>
@@ -85295,8 +85907,14 @@
       <c r="JJ110" s="11">
         <v>18500</v>
       </c>
+      <c r="JK110" s="11">
+        <v>18400</v>
+      </c>
+      <c r="JL110" s="11">
+        <v>18400</v>
+      </c>
     </row>
-    <row r="111" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>123</v>
       </c>
@@ -86105,8 +86723,14 @@
       <c r="JJ111" s="11">
         <v>14500</v>
       </c>
+      <c r="JK111" s="11">
+        <v>14500</v>
+      </c>
+      <c r="JL111" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="112" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>124</v>
       </c>
@@ -86913,6 +87537,12 @@
         <v>7400</v>
       </c>
       <c r="JJ112" s="11">
+        <v>7600</v>
+      </c>
+      <c r="JK112" s="11">
+        <v>7600</v>
+      </c>
+      <c r="JL112" s="11">
         <v>7600</v>
       </c>
     </row>
